--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2558332557756678</v>
+        <v>0.2701644659667506</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2558332557756678, 'ngram_match_score': 0.08499342311134304, 'weighted_ngram_match_score': 0.09108143916330276, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.31210191082802546}</t>
+          <t>{'codebleu': 0.2701644659667506, 'ngram_match_score': 0.08499342311134304, 'weighted_ngram_match_score': 0.09108143916330276, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.36942675159235666}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">

--- a/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.4_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/1/UC2.4_TC1.xlsx
@@ -620,11 +620,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.2701644659667506</v>
+        <v>0.2430944022724831</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.2701644659667506, 'ngram_match_score': 0.08499342311134304, 'weighted_ngram_match_score': 0.09108143916330276, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.36942675159235666}</t>
+          <t>{'codebleu': 0.24309440227248308, 'ngram_match_score': 0.08499342311134304, 'weighted_ngram_match_score': 0.09108143916330276, 'syntax_match_score': 0.53515625, 'dataflow_match_score': 0.2611464968152866}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
